--- a/data/5Ws_2023_v2/eie_5ws_template_v3_20230828_NRC.xlsx
+++ b/data/5Ws_2023_v2/eie_5ws_template_v3_20230828_NRC.xlsx
@@ -29,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'5W_Data_Entry'!$A$1:$W$30</definedName>
     <definedName name="PROVINCE" localSheetId="1">'5W_Data_Entry'!$K$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Werner Lechner - Personal View" guid="{8E856ACE-4D93-4131-B254-1938F75F6C07}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="839">
   <si>
     <t>WHO</t>
   </si>
@@ -2822,6 +2822,9 @@
   <si>
     <t xml:space="preserve">UNICEF </t>
   </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -2831,7 +2834,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3104,6 +3107,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3397,7 +3406,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3591,6 +3600,9 @@
     </xf>
     <xf numFmtId="165" fontId="37" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -32690,7 +32702,7 @@
       <selection activeCell="F4" sqref="E4:F4"/>
       <selection pane="topRight" activeCell="F4" sqref="E4:F4"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="E4:F4"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -32723,30 +32735,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="56.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>752</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="24"/>
       <c r="X1" s="24"/>
       <c r="Y1" s="24"/>
@@ -32765,36 +32777,36 @@
     </row>
     <row r="2" spans="1:37" s="26" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="60"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="84" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="86" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="85" t="s">
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="88" t="s">
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="89" t="s">
         <v>758</v>
       </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
       <c r="V2" s="27"/>
     </row>
     <row r="3" spans="1:37" s="26" customFormat="1" ht="112.5" customHeight="1">
@@ -33009,7 +33021,9 @@
       <c r="C6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="84" t="s">
+        <v>838</v>
+      </c>
       <c r="E6" s="44" t="s">
         <v>13</v>
       </c>
@@ -33074,7 +33088,9 @@
       <c r="C7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="84" t="s">
+        <v>838</v>
+      </c>
       <c r="E7" s="44" t="s">
         <v>13</v>
       </c>
@@ -33139,7 +33155,9 @@
       <c r="C8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="84" t="s">
+        <v>838</v>
+      </c>
       <c r="E8" s="44" t="s">
         <v>13</v>
       </c>
